--- a/input/FinancialSample.xlsx
+++ b/input/FinancialSample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t xml:space="preserve">Segment</t>
   </si>
@@ -201,23 +201,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,9 +249,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financials" displayName="financials" ref="A1:P701" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:P701"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Segment"/>
-    <tableColumn id="2" name="Country"/>
-    <tableColumn id="3" name="Date"/>
+    <tableColumn id="1" name=""/>
+    <tableColumn id="2" name=""/>
+    <tableColumn id="3" name=""/>
     <tableColumn id="4" name=""/>
     <tableColumn id="5" name=""/>
     <tableColumn id="6" name=""/>
@@ -274,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="C1:P13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,85 +301,117 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="6"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="10"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="10"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="6"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="6"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1103,13 +1135,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
